--- a/CorporateNew (1).xlsx
+++ b/CorporateNew (1).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950"/>
+    <workbookView xWindow="240" yWindow="60" windowWidth="20055" windowHeight="7950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="379" uniqueCount="192">
   <si>
     <t>API Name</t>
   </si>
@@ -1101,6 +1101,9 @@
   </si>
   <si>
     <t>Corporate name of the loged in person</t>
+  </si>
+  <si>
+    <t xml:space="preserve">My second commit </t>
   </si>
 </sst>
 </file>
@@ -1577,8 +1580,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G236"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A236" workbookViewId="0">
-      <selection activeCell="F236" sqref="F236"/>
+    <sheetView topLeftCell="A237" workbookViewId="0">
+      <selection activeCell="B239" sqref="B239"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3868,10 +3871,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="33" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1">
+      <c r="A1" t="s">
+        <v>191</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
